--- a/biology/Médecine/Einar_Lindboe/Einar_Lindboe.xlsx
+++ b/biology/Médecine/Einar_Lindboe/Einar_Lindboe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Einar Fredrik Lindboe, né le 2 juin 1876 à Vestre Aker et mort le 26 juin 1953 à Oslo, est un dirigeant sportif, chirurgien et coureur du combiné nordique norvégien.
@@ -514,12 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière dans le sport
-En tant que coureur de combiné nordique, son meilleur résultat est la cinquième place au Festival de ski de Holmenkollen en 1900. Il est membre du clib Skuld SK à Oslo.
+          <t>Carrière dans le sport</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que coureur de combiné nordique, son meilleur résultat est la cinquième place au Festival de ski de Holmenkollen en 1900. Il est membre du clib Skuld SK à Oslo.
 Il est chairman de l'Association de promotion du ski de 1917 à 1921 et de la Fédération norvégienne de ski. Il est aussi membre du comité olympique norvégien, mais est un sceptique des Jeux olympiques d'hiver et a une vision conservatrice du sport.
 Il reçoit, en 1927, la médaille Holmenkollen pour son implication dans les instances du ski norvégien.
-Carrière de chirurgien
-Il est diplômé candidat de médecine à l'Université de Kristiana (aujourd'hui Oslo) en 1903.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Einar_Lindboe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Einar_Lindboe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière de chirurgien</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est diplômé candidat de médecine à l'Université de Kristiana (aujourd'hui Oslo) en 1903.
 Il a développé de nouvelles techniques de chirurgie et est probablement un des premiers à filmer des opérations.
 </t>
         </is>
